--- a/data/trans_camb/P1802-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Clase-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 20,12</t>
+          <t>12,75; 20,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,45; 21,55</t>
+          <t>14,53; 21,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 19,87</t>
+          <t>11,61; 19,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,13; 25,84</t>
+          <t>19,11; 25,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,51</t>
+          <t>13,25; 18,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,38; 22,31</t>
+          <t>17,47; 22,14</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,6</t>
+          <t>8,9; 16,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 20,51</t>
+          <t>13,12; 20,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 21,67</t>
+          <t>13,84; 21,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 23,98</t>
+          <t>17,08; 24,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,78</t>
+          <t>12,39; 17,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,95; 20,95</t>
+          <t>16,02; 21,5</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,82</t>
+          <t>12,25; 18,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,06; 78,62</t>
+          <t>15,15; 80,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,17; 32,28</t>
+          <t>18,46; 31,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,35; 27,23</t>
+          <t>16,92; 28,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,92; 20,95</t>
+          <t>14,66; 20,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,81; 76,86</t>
+          <t>16,83; 75,63</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,32; 17,52</t>
+          <t>13,37; 17,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,14</t>
+          <t>15,49; 20,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,77; 22,14</t>
+          <t>16,63; 22,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,3; 21,85</t>
+          <t>8,98; 21,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,22; 18,7</t>
+          <t>15,27; 18,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,91</t>
+          <t>11,07; 19,8</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,84</t>
+          <t>11,34; 17,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,56</t>
+          <t>12,26; 19,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,06</t>
+          <t>15,87; 21,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,01</t>
+          <t>11,95; 19,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,48; 18,58</t>
+          <t>14,77; 18,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,43; 18,43</t>
+          <t>13,32; 18,23</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,7; 14,06</t>
+          <t>6,92; 14,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,24</t>
+          <t>1,89; 9,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,26</t>
+          <t>17,06; 22,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,85; 16,3</t>
+          <t>11,94; 16,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>15,66; 20,08</t>
+          <t>15,36; 20,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,93; 13,68</t>
+          <t>9,95; 13,59</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,21; 15,72</t>
+          <t>13,15; 15,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,57; 41,27</t>
+          <t>15,49; 39,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,68; 20,48</t>
+          <t>17,55; 20,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,17; 18,95</t>
+          <t>13,98; 18,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>15,8; 17,64</t>
+          <t>15,84; 17,67</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>16,27; 29,06</t>
+          <t>16,17; 31,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1802-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1802-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
